--- a/I2PLS_vs_KBTS.xlsx
+++ b/I2PLS_vs_KBTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\IA\Fondecyt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9184F0CA-6CDC-45AA-9827-46D55E7767F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55F621D-958D-4B17-8941-773FFA5D8AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A582D065-E563-477C-A2B3-5647BC7410AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A582D065-E563-477C-A2B3-5647BC7410AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>I2PLS</t>
   </si>
@@ -192,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,19 +207,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -256,29 +243,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54FE8D6-863E-4586-AEF2-A18DEDAF8125}">
-  <dimension ref="B2:J33"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,49 +596,43 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -658,43 +644,35 @@
       <c r="E4" s="1">
         <v>3.044</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="F4" s="9">
         <v>12045</v>
       </c>
-      <c r="J4" s="1">
+      <c r="G4" s="1">
         <v>4.5330000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="1">
         <v>12299</v>
       </c>
       <c r="E5" s="1">
         <v>2.1269999999999998</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="F5" s="9">
         <v>12369</v>
       </c>
-      <c r="J5" s="1">
+      <c r="G5" s="1">
         <v>1.238</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,41 +682,35 @@
       <c r="E6" s="1">
         <v>27.196999999999999</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="F6" s="9">
         <v>13696</v>
       </c>
-      <c r="J6" s="1">
+      <c r="G6" s="1">
         <v>7.7759999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>11298</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>102.05200000000001</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="F7" s="9">
         <v>11298</v>
       </c>
-      <c r="J7" s="1">
+      <c r="G7" s="1">
         <v>0.42399999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -748,19 +720,16 @@
       <c r="E8" s="1">
         <v>3.625</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="F8" s="9">
         <v>11568</v>
       </c>
-      <c r="J8" s="1">
+      <c r="G8" s="1">
         <v>30.681000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -770,19 +739,16 @@
       <c r="E9" s="1">
         <v>7.9669999999999996</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="F9" s="9">
         <v>11802</v>
       </c>
-      <c r="J9" s="1">
+      <c r="G9" s="1">
         <v>68.941000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,19 +758,16 @@
       <c r="E10" s="1">
         <v>68.683999999999997</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="F10" s="9">
         <v>10600</v>
       </c>
-      <c r="J10" s="1">
+      <c r="G10" s="1">
         <v>78.884</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -814,41 +777,35 @@
       <c r="E11" s="1">
         <v>43.526000000000003</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="F11" s="9">
         <v>10506</v>
       </c>
-      <c r="J11" s="1">
+      <c r="G11" s="1">
         <v>3.919</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>11285</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>85.6</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="F12" s="9">
         <v>11285</v>
       </c>
-      <c r="J12" s="1">
+      <c r="G12" s="1">
         <v>157.23699999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -858,19 +815,16 @@
       <c r="E13" s="1">
         <v>20.646999999999998</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="F13" s="9">
         <v>10220</v>
       </c>
-      <c r="J13" s="1">
+      <c r="G13" s="1">
         <v>24.617000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -879,24 +833,19 @@
       <c r="D14" s="1">
         <v>14044</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>32.090000000000003</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="F14" s="9">
         <v>14044</v>
       </c>
-      <c r="J14" s="1">
+      <c r="G14" s="1">
         <v>26.003</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -906,19 +855,16 @@
       <c r="E15" s="1">
         <v>41.896000000000001</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="F15" s="9">
         <v>13508</v>
       </c>
-      <c r="J15" s="1">
+      <c r="G15" s="1">
         <v>2.8250000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,85 +874,73 @@
       <c r="E16" s="1">
         <v>33.585000000000001</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="F16" s="9">
         <v>12522</v>
       </c>
-      <c r="J16" s="1">
+      <c r="G16" s="1">
         <v>50.771000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1">
         <v>12317</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>315.51</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="F17" s="9">
         <v>12317</v>
       </c>
-      <c r="J17" s="1">
+      <c r="G17" s="1">
         <v>53.597999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>12817</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="3">
         <v>39.902999999999999</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="F18" s="9">
         <v>12817</v>
       </c>
-      <c r="J18" s="1">
+      <c r="G18" s="1">
         <v>93.058000000000007</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1">
         <v>11425</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3">
         <v>106.38200000000001</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="F19" s="9">
         <v>11585</v>
       </c>
-      <c r="J19" s="1">
+      <c r="G19" s="1">
         <v>93.147999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1016,19 +950,16 @@
       <c r="E20" s="1">
         <v>10.164999999999999</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="F20" s="9">
         <v>11665</v>
       </c>
-      <c r="J20" s="1">
+      <c r="G20" s="1">
         <v>82.649000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1038,41 +969,35 @@
       <c r="E21" s="1">
         <v>20.532</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="F21" s="9">
         <v>11325</v>
       </c>
-      <c r="J21" s="1">
+      <c r="G21" s="1">
         <v>71.105999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="1">
         <v>11249</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="3">
         <v>121.66</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="F22" s="9">
         <v>11249</v>
       </c>
-      <c r="J22" s="1">
+      <c r="G22" s="1">
         <v>20.222999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1082,19 +1007,16 @@
       <c r="E23" s="1">
         <v>224.41499999999999</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="F23" s="9">
         <v>10194</v>
       </c>
-      <c r="J23" s="1">
+      <c r="G23" s="1">
         <v>38.652999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1106,21 +1028,16 @@
       <c r="E24" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="F24" s="9">
         <v>13283</v>
       </c>
-      <c r="J24" s="1">
+      <c r="G24" s="1">
         <v>8.7330000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1130,19 +1047,16 @@
       <c r="E25" s="1">
         <v>124.255</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="F25" s="9">
         <v>12479</v>
       </c>
-      <c r="J25" s="1">
+      <c r="G25" s="1">
         <v>12.305</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1152,19 +1066,16 @@
       <c r="E26" s="1">
         <v>41.279000000000003</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="F26" s="9">
         <v>13521</v>
       </c>
-      <c r="J26" s="1">
+      <c r="G26" s="1">
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1174,19 +1085,16 @@
       <c r="E27" s="1">
         <v>11.476000000000001</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="F27" s="9">
         <v>14215</v>
       </c>
-      <c r="J27" s="8">
+      <c r="G27" s="3">
         <v>166.7</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1196,19 +1104,16 @@
       <c r="E28" s="1">
         <v>9.702</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="F28" s="9">
         <v>11563</v>
       </c>
-      <c r="J28" s="1">
+      <c r="G28" s="1">
         <v>70.667000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1218,19 +1123,16 @@
       <c r="E29" s="1">
         <v>256.08199999999999</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="F29" s="9">
         <v>12411</v>
       </c>
-      <c r="J29" s="1">
+      <c r="G29" s="1">
         <v>232.23699999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1240,19 +1142,16 @@
       <c r="E30" s="1">
         <v>45.665999999999997</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="F30" s="9">
         <v>11484</v>
       </c>
-      <c r="J30" s="1">
+      <c r="G30" s="1">
         <v>17.856000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1262,19 +1161,16 @@
       <c r="E31" s="1">
         <v>97.510999999999996</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="F31" s="9">
         <v>11209</v>
       </c>
-      <c r="J31" s="1">
+      <c r="G31" s="1">
         <v>396.36200000000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1284,49 +1180,40 @@
       <c r="E32" s="1">
         <v>343.55099999999999</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="F32" s="9">
         <v>11771</v>
       </c>
-      <c r="J32" s="1">
+      <c r="G32" s="1">
         <v>409.28300000000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>10194</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="3">
         <v>130.57</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="F33" s="9">
         <v>10194</v>
       </c>
-      <c r="J33" s="1">
+      <c r="G33" s="1">
         <v>264.197</v>
       </c>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G24:G33"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="G4:G13"/>
+  <mergeCells count="5">
     <mergeCell ref="B24:B33"/>
     <mergeCell ref="B14:B23"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
